--- a/WorkbookTemplates/01_Structures.xlsx
+++ b/WorkbookTemplates/01_Structures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AdelAbdallah_UOU_PC\01PhD\CI-Water\Data_Loader_WaM-DaM\DesignsDocs\Templates_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\Desktop\WorkbookTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
@@ -23,10 +23,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">[1]Sheet2!$B$37:$B$130</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="3">ObjectAttributes!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">DataStructures!$A$1:$E$25</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1" calcOnSave="0"/>
+  <calcPr calcId="152511" calcMode="manual" iterateDelta="1" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -166,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="368">
   <si>
     <t>Description</t>
   </si>
@@ -1093,15 +1092,221 @@
   </si>
   <si>
     <t>AttributeCategory</t>
+  </si>
+  <si>
+    <t>Idaho Water Rights Accounting</t>
+  </si>
+  <si>
+    <t>IWRA</t>
+  </si>
+  <si>
+    <t>https://maps.idwr.idaho.gov/qwraccounting/</t>
+  </si>
+  <si>
+    <r>
+      <t>The data available from this page are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daily values for flows, diversions or reservoir contents.</t>
+    </r>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>D= Diversion</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F = Flow station (River flow)</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Unknown or Not Identified</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>not sure why this one is Unknown or Not Identified</t>
+  </si>
+  <si>
+    <t>Non-Consumptive</t>
+  </si>
+  <si>
+    <t>P= throguh power plant</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R = Reservoir</t>
+  </si>
+  <si>
+    <t>Historical records: Daily mean values for discharge in cubic feet per second</t>
+  </si>
+  <si>
+    <t>River Name</t>
+  </si>
+  <si>
+    <t>WaterDistr</t>
+  </si>
+  <si>
+    <t>Water District</t>
+  </si>
+  <si>
+    <t>SiteType</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
+    <t>DiversionN</t>
+  </si>
+  <si>
+    <t>Diversion Name</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>IRCH</t>
+  </si>
+  <si>
+    <t>ReachName</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ChangeBy</t>
+  </si>
+  <si>
+    <t>ChangeDate</t>
+  </si>
+  <si>
+    <t>SpatialDat</t>
+  </si>
+  <si>
+    <t>DataSource</t>
+  </si>
+  <si>
+    <t>USGS_URL</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Bear River Basin Planning Model /Wyoming</t>
+  </si>
+  <si>
+    <t>Bear River Model</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/doi/10.1111/j.1745-6584.2005.00065.x/full</t>
+  </si>
+  <si>
+    <t>System Dynamics Modeling of Transboundary Systems: The Bear River Basin Model</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Main Node</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Headflow Node</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>Gage Inflow</t>
+  </si>
+  <si>
+    <t>Inflow To This Node</t>
+  </si>
+  <si>
+    <t>Irrigation Returns</t>
+  </si>
+  <si>
+    <t>Diversions</t>
+  </si>
+  <si>
+    <t>Outflow From This Node</t>
+  </si>
+  <si>
+    <t>Net Evaporation - inches</t>
+  </si>
+  <si>
+    <t>international inch</t>
+  </si>
+  <si>
+    <t>Ungaged Reach Gains</t>
+  </si>
+  <si>
+    <t>Ungaged Reach Losses</t>
+  </si>
+  <si>
+    <t>Historic Average Release</t>
+  </si>
+  <si>
+    <t>Inactive Storage Pool</t>
+  </si>
+  <si>
+    <t>Max Storage Capacity</t>
+  </si>
+  <si>
+    <t>Starting End-of-Month Contents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1216,6 +1421,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1326,20 +1547,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1349,25 +1571,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1382,61 +1604,61 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1455,22 +1677,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -1482,11 +1704,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1494,14 +1716,74 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
@@ -1509,6 +1791,7 @@
     <cellStyle name="Normal 2 4" xfId="5"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 3 2" xfId="6"/>
+    <cellStyle name="Normal_Prototype Spreadsheet3" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2284,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2436,6 +2719,40 @@
         <v>41</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2446,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3297,7 +3614,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -3312,7 +3629,7 @@
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -3327,7 +3644,7 @@
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3342,7 +3659,7 @@
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -3356,6 +3673,189 @@
         <v>106</v>
       </c>
       <c r="E52"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" s="63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B54" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B56" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="G56" s="63" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="G57" s="63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="55">
+        <v>10</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B59" s="55">
+        <v>20</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" s="55">
+        <v>30</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" s="55">
+        <v>40</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -3366,10 +3866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4828,6 +5328,324 @@
       </c>
       <c r="E137" s="53"/>
     </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B138" s="15">
+        <v>1</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D138" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="E138" s="54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B139" s="15">
+        <v>2</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="B140" s="15">
+        <v>3</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B141" s="15">
+        <v>4</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D141" s="54" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="B142" s="15">
+        <v>5</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B143" s="15">
+        <v>6</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D143" s="54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="B144" s="15">
+        <v>7</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="B145" s="15">
+        <v>9</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B146" s="15">
+        <v>10</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="B147" s="15">
+        <v>11</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B148" s="15">
+        <v>12</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="B149" s="15">
+        <v>13</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B150" s="15">
+        <v>15</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="B151" s="15">
+        <v>16</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="B152" s="15">
+        <v>17</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="B153" s="15">
+        <v>18</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="B154" s="15">
+        <v>21</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="B155" s="15">
+        <v>10</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="15">
+        <v>20</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="B157" s="15">
+        <v>70</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="66" t="s">
+        <v>363</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E162" s="15"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E163" s="15"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E164" s="15"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4837,10 +5655,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A332" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D337" sqref="D337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8464,6 +9282,1319 @@
       </c>
       <c r="F257" s="6"/>
     </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B258" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C258" s="22">
+        <v>100</v>
+      </c>
+      <c r="D258" s="64"/>
+      <c r="E258" s="64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B259" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C259" s="22">
+        <v>200</v>
+      </c>
+      <c r="D259" s="64"/>
+      <c r="E259" s="64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B260" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C260" s="22">
+        <v>300</v>
+      </c>
+      <c r="D260" s="64"/>
+      <c r="E260" s="64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B261" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C261" s="22">
+        <v>400</v>
+      </c>
+      <c r="D261" s="64"/>
+      <c r="E261" s="64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B262" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C262" s="22">
+        <v>500</v>
+      </c>
+      <c r="D262" s="64"/>
+      <c r="E262" s="64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B263" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C263" s="22">
+        <v>600</v>
+      </c>
+      <c r="E263" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B264" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C264" s="22">
+        <v>700</v>
+      </c>
+      <c r="E264" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B265" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C265" s="22">
+        <v>800</v>
+      </c>
+      <c r="E265" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B266" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C266" s="22">
+        <v>900</v>
+      </c>
+      <c r="E266" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B267" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C267" s="22">
+        <v>1000</v>
+      </c>
+      <c r="E267" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B268" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="C268" s="22">
+        <v>1100</v>
+      </c>
+      <c r="E268" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B269" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="C269" s="22">
+        <v>1200</v>
+      </c>
+      <c r="E269" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B270" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="C270" s="22">
+        <v>1300</v>
+      </c>
+      <c r="E270" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B271" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="C271" s="22">
+        <v>1400</v>
+      </c>
+      <c r="E271" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B272" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="C272" s="22">
+        <v>1500</v>
+      </c>
+      <c r="E272" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B273" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C273" s="22">
+        <v>1600</v>
+      </c>
+      <c r="E273" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B274" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C274" s="22">
+        <v>1700</v>
+      </c>
+      <c r="E274" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B275" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C275" s="22">
+        <v>1800</v>
+      </c>
+      <c r="E275" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B276" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C276" s="22">
+        <v>1900</v>
+      </c>
+      <c r="E276" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B277" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C277" s="22">
+        <v>2000</v>
+      </c>
+      <c r="E277" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B278" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="C278" s="22">
+        <v>2100</v>
+      </c>
+      <c r="E278" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B279" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="C279" s="22">
+        <v>2200</v>
+      </c>
+      <c r="E279" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B280" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="C280" s="22">
+        <v>2300</v>
+      </c>
+      <c r="E280" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B281" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="C281" s="22">
+        <v>2400</v>
+      </c>
+      <c r="E281" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B282" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="C282" s="22">
+        <v>2500</v>
+      </c>
+      <c r="E282" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B283" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C283" s="22">
+        <v>2600</v>
+      </c>
+      <c r="E283" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B284" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C284" s="22">
+        <v>2700</v>
+      </c>
+      <c r="E284" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B285" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C285" s="22">
+        <v>2800</v>
+      </c>
+      <c r="E285" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B286" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C286" s="22">
+        <v>2900</v>
+      </c>
+      <c r="E286" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B287" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C287" s="22">
+        <v>3000</v>
+      </c>
+      <c r="E287" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B288" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="C288" s="22">
+        <v>3100</v>
+      </c>
+      <c r="E288" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B289" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="C289" s="22">
+        <v>3200</v>
+      </c>
+      <c r="E289" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B290" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="C290" s="22">
+        <v>3300</v>
+      </c>
+      <c r="E290" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B291" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="C291" s="22">
+        <v>3400</v>
+      </c>
+      <c r="E291" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B292" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="C292" s="22">
+        <v>3500</v>
+      </c>
+      <c r="E292" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B293" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C293" s="22">
+        <v>4100</v>
+      </c>
+      <c r="E293" s="64" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B294" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C294" s="22">
+        <v>4200</v>
+      </c>
+      <c r="E294" s="64" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B295" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C295" s="22">
+        <v>4300</v>
+      </c>
+      <c r="E295" s="64" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B296" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C296" s="22">
+        <v>4400</v>
+      </c>
+      <c r="E296" s="64" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B297" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C297" s="22">
+        <v>4500</v>
+      </c>
+      <c r="E297" s="64" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B298" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C298" s="22">
+        <v>4600</v>
+      </c>
+      <c r="E298" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B299" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C299" s="22">
+        <v>4700</v>
+      </c>
+      <c r="E299" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B300" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C300" s="22">
+        <v>4800</v>
+      </c>
+      <c r="E300" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B301" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C301" s="22">
+        <v>4900</v>
+      </c>
+      <c r="E301" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B302" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C302" s="22">
+        <v>5000</v>
+      </c>
+      <c r="E302" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B303" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="C303" s="22">
+        <v>5100</v>
+      </c>
+      <c r="E303" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B304" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="C304" s="22">
+        <v>5200</v>
+      </c>
+      <c r="E304" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B305" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="C305" s="22">
+        <v>5300</v>
+      </c>
+      <c r="E305" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B306" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="C306" s="22">
+        <v>5400</v>
+      </c>
+      <c r="E306" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B307" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="C307" s="22">
+        <v>5500</v>
+      </c>
+      <c r="E307" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B308" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C308" s="22">
+        <v>5600</v>
+      </c>
+      <c r="E308" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B309" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C309" s="22">
+        <v>5700</v>
+      </c>
+      <c r="E309" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B310" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C310" s="22">
+        <v>5800</v>
+      </c>
+      <c r="E310" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B311" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C311" s="22">
+        <v>5900</v>
+      </c>
+      <c r="E311" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B312" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C312" s="22">
+        <v>6000</v>
+      </c>
+      <c r="E312" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B313" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C313" s="22">
+        <v>6100</v>
+      </c>
+      <c r="E313" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C314" s="22">
+        <v>6200</v>
+      </c>
+      <c r="E314" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B315" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C315" s="22">
+        <v>6300</v>
+      </c>
+      <c r="E315" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B316" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C316" s="22">
+        <v>6400</v>
+      </c>
+      <c r="E316" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B317" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C317" s="22">
+        <v>6500</v>
+      </c>
+      <c r="E317" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B318" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C318" s="22">
+        <v>7100</v>
+      </c>
+      <c r="E318" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B319" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C319" s="22">
+        <v>7200</v>
+      </c>
+      <c r="E319" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B320" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C320" s="22">
+        <v>7300</v>
+      </c>
+      <c r="E320" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C321" s="22">
+        <v>7400</v>
+      </c>
+      <c r="E321" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B322" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C322" s="22">
+        <v>7500</v>
+      </c>
+      <c r="E322" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B323" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C323" s="22">
+        <v>7600</v>
+      </c>
+      <c r="E323" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B324" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C324" s="22">
+        <v>7700</v>
+      </c>
+      <c r="E324" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B325" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C325" s="22">
+        <v>7800</v>
+      </c>
+      <c r="E325" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B326" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C326" s="22">
+        <v>7900</v>
+      </c>
+      <c r="E326" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B327" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C327" s="22">
+        <v>8000</v>
+      </c>
+      <c r="E327" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B328" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C328" s="22">
+        <v>8100</v>
+      </c>
+      <c r="E328" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B329" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C329" s="22">
+        <v>8200</v>
+      </c>
+      <c r="E329" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B330" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C330" s="22">
+        <v>8300</v>
+      </c>
+      <c r="E330" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B331" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C331" s="22">
+        <v>8400</v>
+      </c>
+      <c r="E331" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B332" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C332" s="22">
+        <v>8500</v>
+      </c>
+      <c r="E332" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B333" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C333" s="22">
+        <v>8600</v>
+      </c>
+      <c r="E333" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B334" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C334" s="22">
+        <v>8700</v>
+      </c>
+      <c r="E334" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B335" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C335" s="22">
+        <v>8800</v>
+      </c>
+      <c r="E335" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B336" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C336" s="22">
+        <v>8900</v>
+      </c>
+      <c r="E336" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B337" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C337" s="22">
+        <v>9000</v>
+      </c>
+      <c r="E337" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B338" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C338" s="22">
+        <v>10100</v>
+      </c>
+      <c r="E338" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B339" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C339" s="22">
+        <v>10200</v>
+      </c>
+      <c r="E339" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B340" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C340" s="22">
+        <v>10300</v>
+      </c>
+      <c r="E340" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B341" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C341" s="22">
+        <v>10400</v>
+      </c>
+      <c r="E341" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B342" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C342" s="22">
+        <v>10500</v>
+      </c>
+      <c r="E342" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B343" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="C343" s="58"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="68"/>
+      <c r="F343" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="B344" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="C344" s="71"/>
+      <c r="D344" s="72"/>
+      <c r="E344" s="73"/>
+      <c r="F344" s="74" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="B345" s="76" t="s">
+        <v>358</v>
+      </c>
+      <c r="C345" s="77"/>
+      <c r="D345" s="78"/>
+      <c r="E345" s="79"/>
+      <c r="F345" s="80" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="B346" s="76" t="s">
+        <v>362</v>
+      </c>
+      <c r="C346" s="77"/>
+      <c r="D346" s="78"/>
+      <c r="E346" s="79"/>
+      <c r="F346" s="80" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="B347" s="76" t="s">
+        <v>363</v>
+      </c>
+      <c r="C347" s="77"/>
+      <c r="D347" s="78"/>
+      <c r="E347" s="79"/>
+      <c r="F347" s="80" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B348" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="C348" s="58"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="68"/>
+      <c r="F348" s="54"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B349" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="C349" s="58"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="68"/>
+      <c r="F349" s="54"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B350" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="C350" s="58"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="68"/>
+      <c r="F350" s="54"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B351" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="C351" s="58"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="68"/>
+      <c r="F351" s="54"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
